--- a/PflichtenheftOrg/Ext. files/Terminplan_P2_T1.xlsx
+++ b/PflichtenheftOrg/Ext. files/Terminplan_P2_T1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e770999b6604146b/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/PflichtenheftOrg/Ext. files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{DA682CE1-7111-FA40-8BFF-B54D73AF76C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{35BAB28A-F39E-F74F-93B3-816803628346}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{DA682CE1-7111-FA40-8BFF-B54D73AF76C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B26455AE-CDA8-494F-880C-CB9EC8B6A20B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="12040" xr2:uid="{26B4C650-3779-4D35-AA8A-FD08EA6944BC}"/>
   </bookViews>
@@ -204,13 +204,13 @@
     <t>Abgabe Disposition</t>
   </si>
   <si>
-    <t>Software Endversion</t>
-  </si>
-  <si>
-    <t>Schlusspräsentation</t>
-  </si>
-  <si>
     <t>Software Version 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Endversion </t>
+  </si>
+  <si>
+    <t>Schlusspräsentation/Abgabe</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1082,6 +1082,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1401,7 +1407,7 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:W3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1737,7 +1743,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="33"/>
@@ -1766,7 +1772,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="33"/>
@@ -1795,7 +1801,7 @@
     </row>
     <row r="12" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="38"/>
@@ -1889,17 +1895,17 @@
         <f>SUM(B20,B16)</f>
         <v>105</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
       <c r="N15" s="77"/>
       <c r="O15" s="78"/>
       <c r="P15" s="76"/>

--- a/PflichtenheftOrg/Ext. files/Terminplan_P2_T1.xlsx
+++ b/PflichtenheftOrg/Ext. files/Terminplan_P2_T1.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/PflichtenheftOrg/Ext. files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="445" documentId="8_{DA682CE1-7111-FA40-8BFF-B54D73AF76C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="41" xr10:uidLastSave="{4CDBA8A5-3A56-4A45-8916-6C3B869C464E}"/>
+  <xr:revisionPtr revIDLastSave="480" documentId="8_{DA682CE1-7111-FA40-8BFF-B54D73AF76C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1A6811B1-4C02-984F-8368-6343825E6A4B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19660" activeTab="1" xr2:uid="{26B4C650-3779-4D35-AA8A-FD08EA6944BC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" xr2:uid="{26B4C650-3779-4D35-AA8A-FD08EA6944BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplan" sheetId="1" r:id="rId1"/>
     <sheet name="Budget" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -247,9 +253,6 @@
     <t>3.1.3. Skalierung Plot</t>
   </si>
   <si>
-    <t>3.1.4. Berechnungen JAVA kompatiebel</t>
-  </si>
-  <si>
     <t>3.2.1. Etwurf GUI</t>
   </si>
   <si>
@@ -262,13 +265,22 @@
     <t>4.1.2. Validierung</t>
   </si>
   <si>
-    <t>4.2.1. Implementirung</t>
-  </si>
-  <si>
     <t>4.2.2. Schnittstellen</t>
   </si>
   <si>
     <t>Ansatz</t>
+  </si>
+  <si>
+    <t>3.1.4. Berechnungen JAVA kompatibel</t>
+  </si>
+  <si>
+    <t>2.1.1 Rcherchen</t>
+  </si>
+  <si>
+    <t>4.2.1. Implementierung</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -348,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1002,11 +1014,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1294,6 +1319,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1608,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D5950-7261-4020-A4B3-57E49B1CB53A}">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2557,7 +2585,9 @@
         <v>45</v>
       </c>
       <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
+      <c r="C31" s="107" t="s">
+        <v>82</v>
+      </c>
       <c r="D31" s="50"/>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
@@ -2611,11 +2641,13 @@
       <c r="X32" s="47"/>
     </row>
     <row r="33" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="86"/>
+      <c r="A33" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="125"/>
+      <c r="C33" s="86">
+        <v>10</v>
+      </c>
       <c r="D33" s="30"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -2640,10 +2672,12 @@
     </row>
     <row r="34" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="102"/>
-      <c r="C34" s="86"/>
+      <c r="C34" s="86">
+        <v>5</v>
+      </c>
       <c r="D34" s="30"/>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
@@ -2667,40 +2701,42 @@
       <c r="X34" s="47"/>
     </row>
     <row r="35" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="102"/>
+      <c r="C35" s="86">
+        <v>10</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="47"/>
+    </row>
+    <row r="36" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B36" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="42"/>
-    </row>
-    <row r="36" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="102"/>
       <c r="C36" s="86"/>
       <c r="D36" s="60"/>
       <c r="E36" s="41"/>
@@ -2718,18 +2754,20 @@
       <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
       <c r="S36" s="42"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="83"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="42"/>
     </row>
     <row r="37" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="102"/>
-      <c r="C37" s="86"/>
+      <c r="C37" s="86">
+        <v>5</v>
+      </c>
       <c r="D37" s="60"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
@@ -2754,10 +2792,12 @@
     </row>
     <row r="38" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="86"/>
+        <v>66</v>
+      </c>
+      <c r="B38" s="102"/>
+      <c r="C38" s="86">
+        <v>10</v>
+      </c>
       <c r="D38" s="60"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
@@ -2781,68 +2821,70 @@
       <c r="X38" s="83"/>
     </row>
     <row r="39" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="104"/>
+      <c r="C39" s="86">
+        <v>2</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="83"/>
+    </row>
+    <row r="40" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="67"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="68"/>
-    </row>
-    <row r="40" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="68"/>
+    </row>
+    <row r="41" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B41" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="72"/>
-    </row>
-    <row r="41" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="102"/>
       <c r="C41" s="86"/>
       <c r="D41" s="71"/>
       <c r="E41" s="70"/>
@@ -2868,10 +2910,12 @@
     </row>
     <row r="42" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="102"/>
-      <c r="C42" s="86"/>
+      <c r="C42" s="86">
+        <v>20</v>
+      </c>
       <c r="D42" s="71"/>
       <c r="E42" s="70"/>
       <c r="F42" s="70"/>
@@ -2896,10 +2940,12 @@
     </row>
     <row r="43" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="102"/>
-      <c r="C43" s="86"/>
+      <c r="C43" s="86">
+        <v>20</v>
+      </c>
       <c r="D43" s="71"/>
       <c r="E43" s="70"/>
       <c r="F43" s="70"/>
@@ -2924,40 +2970,42 @@
     </row>
     <row r="44" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="102"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="42"/>
+      <c r="C44" s="86">
+        <v>5</v>
+      </c>
+      <c r="D44" s="71"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="70"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="72"/>
     </row>
     <row r="45" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="86"/>
+      <c r="A45" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="102"/>
+      <c r="C45" s="86">
+        <v>10</v>
+      </c>
       <c r="D45" s="60"/>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
@@ -2981,39 +3029,43 @@
       <c r="X45" s="42"/>
     </row>
     <row r="46" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="102"/>
+      <c r="A46" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="102" t="s">
+        <v>49</v>
+      </c>
       <c r="C46" s="86"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="83"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="83"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="42"/>
     </row>
     <row r="47" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="86"/>
+        <v>73</v>
+      </c>
+      <c r="B47" s="102"/>
+      <c r="C47" s="86">
+        <v>20</v>
+      </c>
       <c r="D47" s="81"/>
       <c r="E47" s="82"/>
       <c r="F47" s="82"/>
@@ -3037,68 +3089,70 @@
       <c r="X47" s="83"/>
     </row>
     <row r="48" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="104"/>
+      <c r="C48" s="86">
+        <v>30</v>
+      </c>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="91"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="83"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="83"/>
+    </row>
+    <row r="49" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="112"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-      <c r="X48" s="51"/>
-    </row>
-    <row r="49" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="84" t="s">
+      <c r="B49" s="112"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="51"/>
+    </row>
+    <row r="50" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B50" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="86"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="47"/>
-    </row>
-    <row r="50" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="102"/>
       <c r="C50" s="86"/>
       <c r="D50" s="30"/>
       <c r="E50" s="29"/>
@@ -3124,10 +3178,12 @@
     </row>
     <row r="51" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" s="102"/>
-      <c r="C51" s="86"/>
+      <c r="C51" s="86">
+        <v>100</v>
+      </c>
       <c r="D51" s="30"/>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
@@ -3151,40 +3207,42 @@
       <c r="X51" s="47"/>
     </row>
     <row r="52" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="80" t="s">
+      <c r="A52" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="102"/>
+      <c r="C52" s="86">
+        <v>100</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="47"/>
+    </row>
+    <row r="53" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B53" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="42"/>
-    </row>
-    <row r="53" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="102"/>
       <c r="C53" s="86"/>
       <c r="D53" s="60"/>
       <c r="E53" s="41"/>
@@ -3202,18 +3260,20 @@
       <c r="Q53" s="41"/>
       <c r="R53" s="41"/>
       <c r="S53" s="42"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="82"/>
-      <c r="V53" s="82"/>
-      <c r="W53" s="82"/>
-      <c r="X53" s="83"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="42"/>
     </row>
     <row r="54" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="104"/>
-      <c r="C54" s="86"/>
+        <v>81</v>
+      </c>
+      <c r="B54" s="102"/>
+      <c r="C54" s="86">
+        <v>200</v>
+      </c>
       <c r="D54" s="60"/>
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
@@ -3237,95 +3297,101 @@
       <c r="X54" s="83"/>
     </row>
     <row r="55" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="99" t="s">
+      <c r="A55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="104"/>
+      <c r="C55" s="86">
+        <v>100</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="82"/>
+      <c r="V55" s="82"/>
+      <c r="W55" s="82"/>
+      <c r="X55" s="83"/>
+    </row>
+    <row r="56" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="68"/>
-      <c r="T55" s="67"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="68"/>
-    </row>
-    <row r="56" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="84" t="s">
+      <c r="B56" s="97"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="68"/>
+    </row>
+    <row r="57" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="100"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="70"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="72"/>
-    </row>
-    <row r="57" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="89"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="42"/>
-      <c r="T57" s="60"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="42"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="86">
+        <v>25</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="72"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="72"/>
     </row>
     <row r="58" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="102"/>
-      <c r="C58" s="86"/>
+      <c r="C58" s="86">
+        <v>25</v>
+      </c>
       <c r="D58" s="60"/>
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
@@ -3349,63 +3415,101 @@
       <c r="X58" s="42"/>
     </row>
     <row r="59" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="98" t="s">
+      <c r="A59" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="102"/>
+      <c r="C59" s="86">
+        <v>25</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="41"/>
+      <c r="X59" s="42"/>
+    </row>
+    <row r="60" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="65"/>
-      <c r="X59" s="66"/>
-    </row>
-    <row r="60" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="121" t="s">
+      <c r="B60" s="104"/>
+      <c r="C60" s="86">
+        <v>100</v>
+      </c>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="66"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="65"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="66"/>
+    </row>
+    <row r="61" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="122"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="62"/>
-      <c r="V60" s="62"/>
-      <c r="W60" s="62"/>
-      <c r="X60" s="68"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
+      <c r="X61" s="68"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B63">
+      <c r="C63">
+        <f>SUM(C16:C60)</f>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B64">
         <f>180*6</f>
         <v>1080</v>
       </c>
@@ -3420,7 +3524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530B2D75-3991-FE49-87EA-345BC909D052}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17:C47"/>
     </sheetView>
   </sheetViews>
@@ -3431,7 +3535,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3702,13 +3806,13 @@
         <f>Terminplan!A31</f>
         <v>2. Auftrags Analys</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="107" t="str">
         <f>Terminplan!C31</f>
-        <v>0</v>
-      </c>
-      <c r="C18">
+        <v>+</v>
+      </c>
+      <c r="C18" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H18">
         <v>69</v>
@@ -3733,16 +3837,16 @@
     </row>
     <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="str">
-        <f>Terminplan!A33</f>
+        <f>Terminplan!A34</f>
         <v>2.1.1. Ausgangslage Schaltung EMI</v>
       </c>
       <c r="B20" s="86">
-        <f>Terminplan!C33</f>
-        <v>0</v>
+        <f>Terminplan!C34</f>
+        <v>5</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="H20">
         <v>69</v>
@@ -3750,16 +3854,16 @@
     </row>
     <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="str">
-        <f>Terminplan!A34</f>
+        <f>Terminplan!A35</f>
         <v>2.1.2. Vereinfachungen EMI</v>
       </c>
       <c r="B21" s="86">
-        <f>Terminplan!C34</f>
-        <v>0</v>
+        <f>Terminplan!C35</f>
+        <v>10</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="H21">
         <v>69</v>
@@ -3767,11 +3871,11 @@
     </row>
     <row r="22" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="str">
-        <f>Terminplan!A35</f>
+        <f>Terminplan!A36</f>
         <v>2.2. Software</v>
       </c>
       <c r="B22" s="86">
-        <f>Terminplan!C35</f>
+        <f>Terminplan!C36</f>
         <v>0</v>
       </c>
       <c r="C22">
@@ -3784,16 +3888,16 @@
     </row>
     <row r="23" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="str">
-        <f>Terminplan!A36</f>
+        <f>Terminplan!A37</f>
         <v>2.2.1. Anforderungen Software</v>
       </c>
       <c r="B23" s="86">
-        <f>Terminplan!C36</f>
-        <v>0</v>
+        <f>Terminplan!C37</f>
+        <v>5</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="H23">
         <v>69</v>
@@ -3801,16 +3905,16 @@
     </row>
     <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="str">
-        <f>Terminplan!A37</f>
+        <f>Terminplan!A38</f>
         <v>2.2.2. Struktur Software</v>
       </c>
       <c r="B24" s="86">
-        <f>Terminplan!C37</f>
-        <v>0</v>
+        <f>Terminplan!C38</f>
+        <v>10</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="H24">
         <v>69</v>
@@ -3818,16 +3922,16 @@
     </row>
     <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="str">
-        <f>Terminplan!A38</f>
+        <f>Terminplan!A39</f>
         <v>2.2.3. Berechnungs Optimierung</v>
       </c>
       <c r="B25" s="86">
-        <f>Terminplan!C38</f>
-        <v>0</v>
+        <f>Terminplan!C39</f>
+        <v>2</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="H25">
         <v>69</v>
@@ -3835,11 +3939,11 @@
     </row>
     <row r="26" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="108" t="str">
-        <f>Terminplan!A39</f>
+        <f>Terminplan!A40</f>
         <v>3. Etwurf</v>
       </c>
       <c r="B26" s="110">
-        <f>Terminplan!C39</f>
+        <f>Terminplan!C40</f>
         <v>0</v>
       </c>
       <c r="C26">
@@ -3852,11 +3956,11 @@
     </row>
     <row r="27" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84" t="str">
-        <f>Terminplan!A40</f>
+        <f>Terminplan!A41</f>
         <v>3.1. Elekrotechnik</v>
       </c>
       <c r="B27" s="86">
-        <f>Terminplan!C40</f>
+        <f>Terminplan!C41</f>
         <v>0</v>
       </c>
       <c r="C27">
@@ -3869,16 +3973,16 @@
     </row>
     <row r="28" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="str">
-        <f>Terminplan!A41</f>
+        <f>Terminplan!A42</f>
         <v>3.1.1. Berechnungen</v>
       </c>
       <c r="B28" s="86">
-        <f>Terminplan!C41</f>
-        <v>0</v>
+        <f>Terminplan!C42</f>
+        <v>20</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="H28">
         <v>69</v>
@@ -3886,16 +3990,16 @@
     </row>
     <row r="29" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="str">
-        <f>Terminplan!A42</f>
+        <f>Terminplan!A43</f>
         <v>3.1.2. Simulation Matlab</v>
       </c>
       <c r="B29" s="86">
-        <f>Terminplan!C42</f>
-        <v>0</v>
+        <f>Terminplan!C43</f>
+        <v>20</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="H29">
         <v>69</v>
@@ -3903,16 +4007,16 @@
     </row>
     <row r="30" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="str">
-        <f>Terminplan!A43</f>
+        <f>Terminplan!A44</f>
         <v>3.1.3. Skalierung Plot</v>
       </c>
       <c r="B30" s="86">
-        <f>Terminplan!C43</f>
-        <v>0</v>
+        <f>Terminplan!C44</f>
+        <v>5</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="H30">
         <v>69</v>
@@ -3920,16 +4024,16 @@
     </row>
     <row r="31" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="str">
-        <f>Terminplan!A44</f>
-        <v>3.1.4. Berechnungen JAVA kompatiebel</v>
+        <f>Terminplan!A45</f>
+        <v>3.1.4. Berechnungen JAVA kompatibel</v>
       </c>
       <c r="B31" s="86">
-        <f>Terminplan!C44</f>
-        <v>0</v>
+        <f>Terminplan!C45</f>
+        <v>10</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="H31">
         <v>69</v>
@@ -3937,11 +4041,11 @@
     </row>
     <row r="32" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="str">
-        <f>Terminplan!A45</f>
+        <f>Terminplan!A46</f>
         <v>3.2. Software</v>
       </c>
       <c r="B32" s="86">
-        <f>Terminplan!C45</f>
+        <f>Terminplan!C46</f>
         <v>0</v>
       </c>
       <c r="C32">
@@ -3954,16 +4058,16 @@
     </row>
     <row r="33" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="str">
-        <f>Terminplan!A46</f>
+        <f>Terminplan!A47</f>
         <v>3.2.1. Etwurf GUI</v>
       </c>
       <c r="B33" s="86">
-        <f>Terminplan!C46</f>
-        <v>0</v>
+        <f>Terminplan!C47</f>
+        <v>20</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="H33">
         <v>69</v>
@@ -3971,16 +4075,16 @@
     </row>
     <row r="34" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="str">
-        <f>Terminplan!A47</f>
+        <f>Terminplan!A48</f>
         <v>3.2.2. Klassendiagram</v>
       </c>
       <c r="B34" s="86">
-        <f>Terminplan!C47</f>
-        <v>0</v>
+        <f>Terminplan!C48</f>
+        <v>30</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2070</v>
       </c>
       <c r="H34">
         <v>69</v>
@@ -3988,11 +4092,11 @@
     </row>
     <row r="35" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="111" t="str">
-        <f>Terminplan!A48</f>
+        <f>Terminplan!A49</f>
         <v>4. Realisierung</v>
       </c>
       <c r="B35" s="113">
-        <f>Terminplan!C48</f>
+        <f>Terminplan!C49</f>
         <v>0</v>
       </c>
       <c r="C35">
@@ -4005,11 +4109,11 @@
     </row>
     <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="84" t="str">
-        <f>Terminplan!A49</f>
+        <f>Terminplan!A50</f>
         <v>4.1. Elekrotechnik</v>
       </c>
       <c r="B36" s="86">
-        <f>Terminplan!C49</f>
+        <f>Terminplan!C50</f>
         <v>0</v>
       </c>
       <c r="C36">
@@ -4022,16 +4126,16 @@
     </row>
     <row r="37" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="str">
-        <f>Terminplan!A50</f>
+        <f>Terminplan!A51</f>
         <v>4.1.1. Berechnungen</v>
       </c>
       <c r="B37" s="86">
-        <f>Terminplan!C50</f>
-        <v>0</v>
+        <f>Terminplan!C51</f>
+        <v>100</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="H37">
         <v>69</v>
@@ -4039,16 +4143,16 @@
     </row>
     <row r="38" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="str">
-        <f>Terminplan!A51</f>
+        <f>Terminplan!A52</f>
         <v>4.1.2. Validierung</v>
       </c>
       <c r="B38" s="86">
-        <f>Terminplan!C51</f>
-        <v>0</v>
+        <f>Terminplan!C52</f>
+        <v>100</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="H38">
         <v>69</v>
@@ -4056,11 +4160,11 @@
     </row>
     <row r="39" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80" t="str">
-        <f>Terminplan!A52</f>
+        <f>Terminplan!A53</f>
         <v>4.2. Software</v>
       </c>
       <c r="B39" s="86">
-        <f>Terminplan!C52</f>
+        <f>Terminplan!C53</f>
         <v>0</v>
       </c>
       <c r="C39">
@@ -4073,16 +4177,16 @@
     </row>
     <row r="40" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="str">
-        <f>Terminplan!A53</f>
-        <v>4.2.1. Implementirung</v>
+        <f>Terminplan!A54</f>
+        <v>4.2.1. Implementierung</v>
       </c>
       <c r="B40" s="86">
-        <f>Terminplan!C53</f>
-        <v>0</v>
+        <f>Terminplan!C54</f>
+        <v>200</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="H40">
         <v>69</v>
@@ -4090,16 +4194,16 @@
     </row>
     <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="str">
-        <f>Terminplan!A54</f>
+        <f>Terminplan!A55</f>
         <v>4.2.2. Schnittstellen</v>
       </c>
       <c r="B41" s="86">
-        <f>Terminplan!C54</f>
-        <v>0</v>
+        <f>Terminplan!C55</f>
+        <v>100</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="H41">
         <v>69</v>
@@ -4107,11 +4211,11 @@
     </row>
     <row r="42" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="str">
-        <f>Terminplan!A55</f>
+        <f>Terminplan!A56</f>
         <v>5. Tests / Validierung</v>
       </c>
       <c r="B42" s="96">
-        <f>Terminplan!C55</f>
+        <f>Terminplan!C56</f>
         <v>0</v>
       </c>
       <c r="C42">
@@ -4124,16 +4228,16 @@
     </row>
     <row r="43" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="84" t="str">
-        <f>Terminplan!A56</f>
+        <f>Terminplan!A57</f>
         <v>5.1. Interne Test</v>
       </c>
       <c r="B43" s="86">
-        <f>Terminplan!C56</f>
-        <v>0</v>
+        <f>Terminplan!C57</f>
+        <v>25</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1725</v>
       </c>
       <c r="H43">
         <v>69</v>
@@ -4141,16 +4245,16 @@
     </row>
     <row r="44" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="80" t="str">
-        <f>Terminplan!A57</f>
+        <f>Terminplan!A58</f>
         <v>5.2. Begleitung Externe Test</v>
       </c>
       <c r="B44" s="86">
-        <f>Terminplan!C57</f>
-        <v>0</v>
+        <f>Terminplan!C58</f>
+        <v>25</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1725</v>
       </c>
       <c r="H44">
         <v>69</v>
@@ -4158,16 +4262,16 @@
     </row>
     <row r="45" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="80" t="str">
-        <f>Terminplan!A58</f>
+        <f>Terminplan!A59</f>
         <v>5.3. Auswertung Test Extern/Intern</v>
       </c>
       <c r="B45" s="86">
-        <f>Terminplan!C58</f>
-        <v>0</v>
+        <f>Terminplan!C59</f>
+        <v>25</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1725</v>
       </c>
       <c r="H45">
         <v>69</v>
@@ -4175,16 +4279,16 @@
     </row>
     <row r="46" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="98" t="str">
-        <f>Terminplan!A59</f>
+        <f>Terminplan!A60</f>
         <v>5.4. Validirung / Korrektuern</v>
       </c>
       <c r="B46" s="86">
-        <f>Terminplan!C59</f>
-        <v>0</v>
+        <f>Terminplan!C60</f>
+        <v>100</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="H46">
         <v>69</v>
@@ -4192,11 +4296,11 @@
     </row>
     <row r="47" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="121" t="str">
-        <f>Terminplan!A60</f>
+        <f>Terminplan!A61</f>
         <v>6. Reserve</v>
       </c>
       <c r="B47" s="123">
-        <f>Terminplan!C60</f>
+        <f>Terminplan!C61</f>
         <v>0</v>
       </c>
       <c r="C47">
